--- a/Python/output/case-study/FC_SA_CVresults.xlsx
+++ b/Python/output/case-study/FC_SA_CVresults.xlsx
@@ -359,9 +359,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -396,13 +398,13 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>5006637.1359999999</v>
+        <v>5185112.49987623</v>
       </c>
       <c r="E2">
-        <v>887935.22809999995</v>
+        <v>893119.60905037599</v>
       </c>
       <c r="F2">
-        <v>32.341449019999999</v>
+        <v>30.5057599544525</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -416,13 +418,13 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>962487.46609999996</v>
+        <v>1170366.17058781</v>
       </c>
       <c r="E3">
-        <v>123885.9191</v>
+        <v>134058.22246683401</v>
       </c>
       <c r="F3">
-        <v>31.380468130000001</v>
+        <v>31.420725107192901</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -430,19 +432,19 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>737100.73849999998</v>
+        <v>957719.22538859199</v>
       </c>
       <c r="E4">
-        <v>49629.124479999999</v>
+        <v>64968.222490371903</v>
       </c>
       <c r="F4">
-        <v>31.554713249999999</v>
+        <v>30.913300037384001</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -450,39 +452,39 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>734069.32059999998</v>
+        <v>946389.97019098804</v>
       </c>
       <c r="E5">
-        <v>49103.250469999999</v>
+        <v>63522.497416422702</v>
       </c>
       <c r="F5">
-        <v>31.293104169999999</v>
+        <v>30.844813823699901</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>0.25</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>2843934.9789999998</v>
+        <v>943358.55232126894</v>
       </c>
       <c r="E6">
-        <v>526017.39399999997</v>
+        <v>62997.636164621399</v>
       </c>
       <c r="F6">
-        <v>37.884316920000003</v>
+        <v>31.051187992095901</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -490,19 +492,19 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>658310.23030000005</v>
+        <v>3007656.9947294202</v>
       </c>
       <c r="E7">
-        <v>52509.774369999999</v>
+        <v>533501.20868378202</v>
       </c>
       <c r="F7">
-        <v>37.53011703</v>
+        <v>38.333539009094203</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -510,19 +512,19 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>625432.95090000005</v>
+        <v>838056.95297577104</v>
       </c>
       <c r="E8">
-        <v>48387.85903</v>
+        <v>66363.890519091903</v>
       </c>
       <c r="F8">
-        <v>37.63730717</v>
+        <v>37.681463003158498</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -530,99 +532,59 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>622344.89870000002</v>
+        <v>815258.96724118199</v>
       </c>
       <c r="E9">
-        <v>47882.850279999999</v>
+        <v>63564.5432525699</v>
       </c>
       <c r="F9">
-        <v>37.727392909999999</v>
+        <v>38.1301879882812</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>6638140.1390000004</v>
+        <v>805179.67355535994</v>
       </c>
       <c r="E10">
-        <v>1049062.193</v>
+        <v>62246.639860000098</v>
       </c>
       <c r="F10">
-        <v>35.333630079999999</v>
+        <v>38.095175981521599</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>0.25</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>8731344.534</v>
+        <v>802091.62134802598</v>
       </c>
       <c r="E11">
-        <v>1224937.3999999999</v>
+        <v>61741.392100449099</v>
       </c>
       <c r="F11">
-        <v>34.830543040000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>0.25</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>3715970.9019999998</v>
-      </c>
-      <c r="E12">
-        <v>677366.00540000002</v>
-      </c>
-      <c r="F12">
-        <v>42.557238820000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>0.25</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>4610625.7149999999</v>
-      </c>
-      <c r="E13">
-        <v>833968.196</v>
-      </c>
-      <c r="F13">
-        <v>41.654752969999997</v>
+        <v>37.690620183944702</v>
       </c>
     </row>
   </sheetData>
